--- a/csv/model/CIMS_base/formula_CIMS_base_CIMS.xlsx
+++ b/csv/model/CIMS_base/formula_CIMS_base_CIMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A01E86-016D-4251-85DF-245EDC3A0D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A27C2525-C707-4B6B-BF41-BAF39709029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{94268E43-8BE8-4655-9DBE-A75F362EA945}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B7F69D1-2E51-42F0-B31D-E4D98067042C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -512,8 +512,10 @@
       <sheetName val="Coefficients"/>
     </sheetNames>
     <definedNames>
-      <definedName name="CER_prices" refersTo="='Prices'!$K$4:$U$210"/>
-      <definedName name="CER_prices_index" refersTo="='Prices'!$CJ$4:$CJ$210"/>
+      <definedName name="CER_prices" refersTo="='Prices'!$K$26:$U$210"/>
+      <definedName name="CER_prices_index" refersTo="='Prices'!$CJ$26:$CJ$210"/>
+      <definedName name="CER_prod_cost" refersTo="='Prices'!$K$11:$U$23"/>
+      <definedName name="CER_prod_cost_index" refersTo="='Prices'!$CJ$11:$CJ$23"/>
       <definedName name="CER_year" refersTo="='Prices'!$K$2:$U$2"/>
       <definedName name="JCIMS_price_inflator" refersTo="='Prices'!$K$808"/>
       <definedName name="JCIMS_prices" refersTo="='Prices'!$K$794:$U$806"/>
@@ -536,188 +538,6 @@
             <v>Currency</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="K4">
-            <v>35702908</v>
-          </cell>
-          <cell r="L4">
-            <v>38037204</v>
-          </cell>
-          <cell r="M4">
-            <v>39913200</v>
-          </cell>
-          <cell r="N4">
-            <v>41887500</v>
-          </cell>
-          <cell r="O4">
-            <v>43754600</v>
-          </cell>
-          <cell r="P4">
-            <v>45505800</v>
-          </cell>
-          <cell r="Q4">
-            <v>47155300</v>
-          </cell>
-          <cell r="R4">
-            <v>48762100</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>4776388</v>
-          </cell>
-          <cell r="L5">
-            <v>5158728</v>
-          </cell>
-          <cell r="M5">
-            <v>5414300</v>
-          </cell>
-          <cell r="N5">
-            <v>5702800</v>
-          </cell>
-          <cell r="O5">
-            <v>5977000</v>
-          </cell>
-          <cell r="P5">
-            <v>6237500</v>
-          </cell>
-          <cell r="Q5">
-            <v>6463597.6897450434</v>
-          </cell>
-          <cell r="R5">
-            <v>6683842.4717288781</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>4144491</v>
-          </cell>
-          <cell r="L6">
-            <v>4420029</v>
-          </cell>
-          <cell r="M6">
-            <v>4965000</v>
-          </cell>
-          <cell r="N6">
-            <v>5460100</v>
-          </cell>
-          <cell r="O6">
-            <v>5976700</v>
-          </cell>
-          <cell r="P6">
-            <v>6515600</v>
-          </cell>
-          <cell r="Q6">
-            <v>6751778.2937559607</v>
-          </cell>
-          <cell r="R6">
-            <v>6981842.726861191</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>1120967</v>
-          </cell>
-          <cell r="L7">
-            <v>1179300</v>
-          </cell>
-          <cell r="M7">
-            <v>1296800</v>
-          </cell>
-          <cell r="N7">
-            <v>1398300</v>
-          </cell>
-          <cell r="O7">
-            <v>1495100</v>
-          </cell>
-          <cell r="P7">
-            <v>1583800</v>
-          </cell>
-          <cell r="Q7">
-            <v>1641209.7829287695</v>
-          </cell>
-          <cell r="R7">
-            <v>1697133.4199157031</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>1292227</v>
-          </cell>
-          <cell r="L8">
-            <v>1380648</v>
-          </cell>
-          <cell r="M8">
-            <v>1452400</v>
-          </cell>
-          <cell r="N8">
-            <v>1524900</v>
-          </cell>
-          <cell r="O8">
-            <v>1598100</v>
-          </cell>
-          <cell r="P8">
-            <v>1672400</v>
-          </cell>
-          <cell r="Q8">
-            <v>1733021.3669466309</v>
-          </cell>
-          <cell r="R8">
-            <v>1792073.4508568139</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>13707118</v>
-          </cell>
-          <cell r="L9">
-            <v>14745712</v>
-          </cell>
-          <cell r="M9">
-            <v>15465400</v>
-          </cell>
-          <cell r="N9">
-            <v>16239800</v>
-          </cell>
-          <cell r="O9">
-            <v>16942700</v>
-          </cell>
-          <cell r="P9">
-            <v>17554000</v>
-          </cell>
-          <cell r="Q9">
-            <v>18190299.614554629</v>
-          </cell>
-          <cell r="R9">
-            <v>18810127.574946489</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>8175272</v>
-          </cell>
-          <cell r="L10">
-            <v>8578300</v>
-          </cell>
-          <cell r="M10">
-            <v>8749700</v>
-          </cell>
-          <cell r="N10">
-            <v>8977700</v>
-          </cell>
-          <cell r="O10">
-            <v>9185100</v>
-          </cell>
-          <cell r="P10">
-            <v>9385400</v>
-          </cell>
-          <cell r="Q10">
-            <v>9725603.1675083172</v>
-          </cell>
-          <cell r="R10">
-            <v>10056999.620707691</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="K11">
             <v>758842</v>
@@ -995,52 +815,6 @@
             <v>6683842.4717288781</v>
           </cell>
           <cell r="U23" t="str">
-            <v>Scenario M3: Medium growth</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="M24">
-            <v>4965000</v>
-          </cell>
-          <cell r="N24">
-            <v>5460100</v>
-          </cell>
-          <cell r="O24">
-            <v>5976700</v>
-          </cell>
-          <cell r="P24">
-            <v>6515600</v>
-          </cell>
-          <cell r="Q24">
-            <v>6751778.2937559607</v>
-          </cell>
-          <cell r="R24">
-            <v>6981842.726861191</v>
-          </cell>
-          <cell r="U24" t="str">
-            <v>Scenario M3: Medium growth</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>1296800</v>
-          </cell>
-          <cell r="N25">
-            <v>1398300</v>
-          </cell>
-          <cell r="O25">
-            <v>1495100</v>
-          </cell>
-          <cell r="P25">
-            <v>1583800</v>
-          </cell>
-          <cell r="Q25">
-            <v>1641209.7829287695</v>
-          </cell>
-          <cell r="R25">
-            <v>1697133.4199157031</v>
-          </cell>
-          <cell r="U25" t="str">
             <v>Scenario M3: Medium growth</v>
           </cell>
         </row>
@@ -2340,216 +2114,6 @@
             <v>2050</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="K4">
-            <v>77.624814851455724</v>
-          </cell>
-          <cell r="L4">
-            <v>77.624814851455724</v>
-          </cell>
-          <cell r="M4">
-            <v>101.39911303920623</v>
-          </cell>
-          <cell r="N4">
-            <v>60.837965156576949</v>
-          </cell>
-          <cell r="O4">
-            <v>72.811378070272852</v>
-          </cell>
-          <cell r="P4">
-            <v>75.993051453005904</v>
-          </cell>
-          <cell r="Q4">
-            <v>71.993417166005571</v>
-          </cell>
-          <cell r="R4">
-            <v>71.993417166005571</v>
-          </cell>
-          <cell r="S4">
-            <v>71.993417166005571</v>
-          </cell>
-          <cell r="T4">
-            <v>71.993417166005571</v>
-          </cell>
-          <cell r="U4">
-            <v>71.993417166005571</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>80.510277023790977</v>
-          </cell>
-          <cell r="L5">
-            <v>80.510277023790977</v>
-          </cell>
-          <cell r="M5">
-            <v>101.23700842278313</v>
-          </cell>
-          <cell r="N5">
-            <v>56.593726379407435</v>
-          </cell>
-          <cell r="O5">
-            <v>70.058740276108168</v>
-          </cell>
-          <cell r="P5">
-            <v>73.593270880805719</v>
-          </cell>
-          <cell r="Q5">
-            <v>69.593636593805385</v>
-          </cell>
-          <cell r="R5">
-            <v>69.593636593805385</v>
-          </cell>
-          <cell r="S5">
-            <v>69.593636593805385</v>
-          </cell>
-          <cell r="T5">
-            <v>69.593636593805385</v>
-          </cell>
-          <cell r="U5">
-            <v>69.593636593805385</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>52.152776124136977</v>
-          </cell>
-          <cell r="L6">
-            <v>52.152776124136977</v>
-          </cell>
-          <cell r="M6">
-            <v>83.589219181497086</v>
-          </cell>
-          <cell r="N6">
-            <v>40.725433300622093</v>
-          </cell>
-          <cell r="O6">
-            <v>56.47426734117483</v>
-          </cell>
-          <cell r="P6">
-            <v>61.594368019804797</v>
-          </cell>
-          <cell r="Q6">
-            <v>57.594733732804457</v>
-          </cell>
-          <cell r="R6">
-            <v>57.594733732804457</v>
-          </cell>
-          <cell r="S6">
-            <v>57.594733732804457</v>
-          </cell>
-          <cell r="T6">
-            <v>57.594733732804457</v>
-          </cell>
-          <cell r="U6">
-            <v>57.594733732804457</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>63.12185516878214</v>
-          </cell>
-          <cell r="L7">
-            <v>63.12185516878214</v>
-          </cell>
-          <cell r="M7">
-            <v>83.643254053638174</v>
-          </cell>
-          <cell r="N7">
-            <v>66.803155547502755</v>
-          </cell>
-          <cell r="O7">
-            <v>82.48669449603068</v>
-          </cell>
-          <cell r="P7">
-            <v>92.55153740118719</v>
-          </cell>
-          <cell r="Q7">
-            <v>85.336197147438611</v>
-          </cell>
-          <cell r="R7">
-            <v>85.336197147438611</v>
-          </cell>
-          <cell r="S7">
-            <v>86.680074267870708</v>
-          </cell>
-          <cell r="T7">
-            <v>86.680074267870708</v>
-          </cell>
-          <cell r="U7">
-            <v>86.680074267870708</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>12.09484683970792</v>
-          </cell>
-          <cell r="L8">
-            <v>12.09484683970792</v>
-          </cell>
-          <cell r="M8">
-            <v>5.4809784896361426</v>
-          </cell>
-          <cell r="N8">
-            <v>3.0581775298508642</v>
-          </cell>
-          <cell r="O8">
-            <v>4.0159752892476659</v>
-          </cell>
-          <cell r="P8">
-            <v>3.5996708583002786</v>
-          </cell>
-          <cell r="Q8">
-            <v>3.5996708583002786</v>
-          </cell>
-          <cell r="R8">
-            <v>3.7556565954932908</v>
-          </cell>
-          <cell r="S8">
-            <v>3.9116423326863026</v>
-          </cell>
-          <cell r="T8">
-            <v>3.9116423326863026</v>
-          </cell>
-          <cell r="U8">
-            <v>3.9116423326863026</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>10.156284763586822</v>
-          </cell>
-          <cell r="L9">
-            <v>10.156284763586822</v>
-          </cell>
-          <cell r="M9">
-            <v>4.3529394956316887</v>
-          </cell>
-          <cell r="N9">
-            <v>2.4527921015320051</v>
-          </cell>
-          <cell r="O9">
-            <v>2.9909258420177003</v>
-          </cell>
-          <cell r="P9">
-            <v>2.5533665288209977</v>
-          </cell>
-          <cell r="Q9">
-            <v>2.8797366866402228</v>
-          </cell>
-          <cell r="R9">
-            <v>3.0453215461220355</v>
-          </cell>
-          <cell r="S9">
-            <v>3.2013072833150478</v>
-          </cell>
-          <cell r="T9">
-            <v>3.2013072833150478</v>
-          </cell>
-          <cell r="U9">
-            <v>3.2013072833150478</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="K11">
             <v>14.311056498313594</v>
@@ -3032,41 +2596,6 @@
             <v>ATProduction costCIMS.CAN.AT.Electricity</v>
           </cell>
         </row>
-        <row r="24">
-          <cell r="K24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="L24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="M24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="N24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="O24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="P24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="Q24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="R24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="S24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="T24" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="U24" t="e">
-            <v>#REF!</v>
-          </cell>
-        </row>
         <row r="26">
           <cell r="K26">
             <v>0</v>
@@ -3172,7 +2701,7 @@
             <v>40.396715879430587</v>
           </cell>
           <cell r="CJ29" t="str">
-            <v>CANResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>CANResidentialCIMS.CAN.CAN.Electricity</v>
           </cell>
         </row>
         <row r="30">
@@ -3210,7 +2739,7 @@
             <v>42.697852633013973</v>
           </cell>
           <cell r="CJ30" t="str">
-            <v>BCResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>BCResidentialCIMS.CAN.BC.Electricity</v>
           </cell>
         </row>
         <row r="31">
@@ -3248,7 +2777,7 @@
             <v>63.775899342030478</v>
           </cell>
           <cell r="CJ31" t="str">
-            <v>ABResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>ABResidentialCIMS.CAN.AB.Electricity</v>
           </cell>
         </row>
         <row r="32">
@@ -3286,7 +2815,7 @@
             <v>70.158181876423342</v>
           </cell>
           <cell r="CJ32" t="str">
-            <v>SKResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>SKResidentialCIMS.CAN.SK.Electricity</v>
           </cell>
         </row>
         <row r="33">
@@ -3324,7 +2853,7 @@
             <v>35.500345774215099</v>
           </cell>
           <cell r="CJ33" t="str">
-            <v>MBResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>MBResidentialCIMS.CAN.MB.Electricity</v>
           </cell>
         </row>
         <row r="34">
@@ -3362,7 +2891,7 @@
             <v>36.437002337359296</v>
           </cell>
           <cell r="CJ34" t="str">
-            <v>ONResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>ONResidentialCIMS.CAN.ON.Electricity</v>
           </cell>
         </row>
         <row r="35">
@@ -3400,7 +2929,7 @@
             <v>33.219834227272599</v>
           </cell>
           <cell r="CJ35" t="str">
-            <v>QCResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>QCResidentialCIMS.CAN.QC.Electricity</v>
           </cell>
         </row>
         <row r="36">
@@ -3438,7 +2967,7 @@
             <v>48.530768521885349</v>
           </cell>
           <cell r="CJ36" t="str">
-            <v>NBResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>NBResidentialCIMS.CAN.NB.Electricity</v>
           </cell>
         </row>
         <row r="37">
@@ -3476,7 +3005,7 @@
             <v>60.883142856951359</v>
           </cell>
           <cell r="CJ37" t="str">
-            <v>NSResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>NSResidentialCIMS.CAN.NS.Electricity</v>
           </cell>
         </row>
         <row r="38">
@@ -3514,7 +3043,7 @@
             <v>52.701550508212677</v>
           </cell>
           <cell r="CJ38" t="str">
-            <v>PEResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>PEResidentialCIMS.CAN.PE.Electricity</v>
           </cell>
         </row>
         <row r="39">
@@ -3552,7 +3081,7 @@
             <v>58.940114381594455</v>
           </cell>
           <cell r="CJ39" t="str">
-            <v>NLResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>NLResidentialCIMS.CAN.NL.Electricity</v>
           </cell>
         </row>
         <row r="40">
@@ -3590,7 +3119,7 @@
             <v>74.740633095829295</v>
           </cell>
           <cell r="CJ40" t="str">
-            <v>YTResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>YTResidentialCIMS.CAN.YT.Electricity</v>
           </cell>
         </row>
         <row r="41">
@@ -3628,7 +3157,7 @@
             <v>59.512889905746853</v>
           </cell>
           <cell r="CJ41" t="str">
-            <v>NTResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>NTResidentialCIMS.CAN.NT.Electricity</v>
           </cell>
         </row>
         <row r="42">
@@ -3666,7 +3195,7 @@
             <v>76.947754440277478</v>
           </cell>
           <cell r="CJ42" t="str">
-            <v>NUResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>NUResidentialCIMS.CAN.NU.Electricity</v>
           </cell>
         </row>
         <row r="43">
@@ -3704,7 +3233,7 @@
             <v>55.263894067160962</v>
           </cell>
           <cell r="CJ43" t="str">
-            <v>ATResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>ATResidentialCIMS.CAN.AT.Electricity</v>
           </cell>
         </row>
         <row r="44">
@@ -3742,7 +3271,7 @@
             <v>70.400425813951202</v>
           </cell>
           <cell r="CJ44" t="str">
-            <v>TRResidentialCIMS.Generic Fuels.Electricity</v>
+            <v>TRResidentialCIMS.CAN.TR.Electricity</v>
           </cell>
         </row>
         <row r="45">
@@ -4996,7 +4525,7 @@
             <v>38.497305635386681</v>
           </cell>
           <cell r="CJ79" t="str">
-            <v>CANCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>CANCommercialCIMS.CAN.CAN.Electricity</v>
           </cell>
         </row>
         <row r="80">
@@ -5034,7 +4563,7 @@
             <v>32.936813637565869</v>
           </cell>
           <cell r="CJ80" t="str">
-            <v>BCCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>BCCommercialCIMS.CAN.BC.Electricity</v>
           </cell>
         </row>
         <row r="81">
@@ -5072,7 +4601,7 @@
             <v>58.320630493062104</v>
           </cell>
           <cell r="CJ81" t="str">
-            <v>ABCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>ABCommercialCIMS.CAN.AB.Electricity</v>
           </cell>
         </row>
         <row r="82">
@@ -5110,7 +4639,7 @@
             <v>50.189929933851403</v>
           </cell>
           <cell r="CJ82" t="str">
-            <v>SKCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>SKCommercialCIMS.CAN.SK.Electricity</v>
           </cell>
         </row>
         <row r="83">
@@ -5148,7 +4677,7 @@
             <v>26.272804255756874</v>
           </cell>
           <cell r="CJ83" t="str">
-            <v>MBCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>MBCommercialCIMS.CAN.MB.Electricity</v>
           </cell>
         </row>
         <row r="84">
@@ -5186,7 +4715,7 @@
             <v>37.784057885202948</v>
           </cell>
           <cell r="CJ84" t="str">
-            <v>ONCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>ONCommercialCIMS.CAN.ON.Electricity</v>
           </cell>
         </row>
         <row r="85">
@@ -5224,7 +4753,7 @@
             <v>31.300756597488895</v>
           </cell>
           <cell r="CJ85" t="str">
-            <v>QCCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>QCCommercialCIMS.CAN.QC.Electricity</v>
           </cell>
         </row>
         <row r="86">
@@ -5262,7 +4791,7 @@
             <v>38.514127216151358</v>
           </cell>
           <cell r="CJ86" t="str">
-            <v>NBCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>NBCommercialCIMS.CAN.NB.Electricity</v>
           </cell>
         </row>
         <row r="87">
@@ -5300,7 +4829,7 @@
             <v>50.39055920316688</v>
           </cell>
           <cell r="CJ87" t="str">
-            <v>NSCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>NSCommercialCIMS.CAN.NS.Electricity</v>
           </cell>
         </row>
         <row r="88">
@@ -5338,7 +4867,7 @@
             <v>39.821371008770221</v>
           </cell>
           <cell r="CJ88" t="str">
-            <v>PECommercialCIMS.Generic Fuels.Electricity</v>
+            <v>PECommercialCIMS.CAN.PE.Electricity</v>
           </cell>
         </row>
         <row r="89">
@@ -5376,7 +4905,7 @@
             <v>40.00706547171189</v>
           </cell>
           <cell r="CJ89" t="str">
-            <v>NLCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>NLCommercialCIMS.CAN.NL.Electricity</v>
           </cell>
         </row>
         <row r="90">
@@ -5414,7 +4943,7 @@
             <v>58.080097528519374</v>
           </cell>
           <cell r="CJ90" t="str">
-            <v>YTCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>YTCommercialCIMS.CAN.YT.Electricity</v>
           </cell>
         </row>
         <row r="91">
@@ -5452,7 +4981,7 @@
             <v>44.12970060210202</v>
           </cell>
           <cell r="CJ91" t="str">
-            <v>NTCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>NTCommercialCIMS.CAN.NT.Electricity</v>
           </cell>
         </row>
         <row r="92">
@@ -5490,7 +5019,7 @@
             <v>60.734281983391035</v>
           </cell>
           <cell r="CJ92" t="str">
-            <v>NUCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>NUCommercialCIMS.CAN.NU.Electricity</v>
           </cell>
         </row>
         <row r="93">
@@ -5528,7 +5057,7 @@
             <v>42.183280724950087</v>
           </cell>
           <cell r="CJ93" t="str">
-            <v>ATCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>ATCommercialCIMS.CAN.AT.Electricity</v>
           </cell>
         </row>
         <row r="94">
@@ -5566,7 +5095,7 @@
             <v>54.314693371337476</v>
           </cell>
           <cell r="CJ94" t="str">
-            <v>TRCommercialCIMS.Generic Fuels.Electricity</v>
+            <v>TRCommercialCIMS.CAN.TR.Electricity</v>
           </cell>
         </row>
         <row r="95">
@@ -10356,230 +9885,6 @@
           </cell>
           <cell r="U2">
             <v>2045</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>0</v>
-          </cell>
-          <cell r="M4">
-            <v>0</v>
-          </cell>
-          <cell r="N4">
-            <v>0</v>
-          </cell>
-          <cell r="O4">
-            <v>0</v>
-          </cell>
-          <cell r="P4">
-            <v>30</v>
-          </cell>
-          <cell r="Q4">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R4">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S4">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T4">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U4">
-            <v>55.57940835560332</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>0</v>
-          </cell>
-          <cell r="M5">
-            <v>0</v>
-          </cell>
-          <cell r="N5">
-            <v>26.526018458051627</v>
-          </cell>
-          <cell r="O5">
-            <v>33.304393348006798</v>
-          </cell>
-          <cell r="P5">
-            <v>40</v>
-          </cell>
-          <cell r="Q5">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R5">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S5">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T5">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U5">
-            <v>55.57940835560332</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-          <cell r="O6">
-            <v>0</v>
-          </cell>
-          <cell r="P6">
-            <v>30</v>
-          </cell>
-          <cell r="Q6">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R6">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S6">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T6">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U6">
-            <v>55.57940835560332</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>0</v>
-          </cell>
-          <cell r="M7">
-            <v>0</v>
-          </cell>
-          <cell r="N7">
-            <v>0</v>
-          </cell>
-          <cell r="O7">
-            <v>0</v>
-          </cell>
-          <cell r="P7">
-            <v>30</v>
-          </cell>
-          <cell r="Q7">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R7">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S7">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T7">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U7">
-            <v>55.57940835560332</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>0</v>
-          </cell>
-          <cell r="M8">
-            <v>0</v>
-          </cell>
-          <cell r="N8">
-            <v>0</v>
-          </cell>
-          <cell r="O8">
-            <v>0</v>
-          </cell>
-          <cell r="P8">
-            <v>30</v>
-          </cell>
-          <cell r="Q8">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R8">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S8">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T8">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U8">
-            <v>55.57940835560332</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>0</v>
-          </cell>
-          <cell r="M9">
-            <v>0</v>
-          </cell>
-          <cell r="N9">
-            <v>0</v>
-          </cell>
-          <cell r="O9">
-            <v>0</v>
-          </cell>
-          <cell r="P9">
-            <v>30</v>
-          </cell>
-          <cell r="Q9">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R9">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S9">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T9">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U9">
-            <v>55.57940835560332</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10">
-            <v>0</v>
-          </cell>
-          <cell r="M10">
-            <v>0</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-          <cell r="O10">
-            <v>18.87248956387052</v>
-          </cell>
-          <cell r="P10">
-            <v>22.15</v>
-          </cell>
-          <cell r="Q10">
-            <v>68.341643330825832</v>
-          </cell>
-          <cell r="R10">
-            <v>100.32134973994673</v>
-          </cell>
-          <cell r="S10">
-            <v>82.639006798408047</v>
-          </cell>
-          <cell r="T10">
-            <v>67.75892127087694</v>
-          </cell>
-          <cell r="U10">
-            <v>55.57940835560332</v>
           </cell>
         </row>
         <row r="11">
@@ -17220,216 +16525,6 @@
             <v>2060</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="K5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="L5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="M5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="N5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="O5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="P5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="Q5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="R5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="S5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="T5">
-            <v>33.322391017173047</v>
-          </cell>
-          <cell r="U5">
-            <v>33.322391017173047</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>38.21000005608883</v>
-          </cell>
-          <cell r="L6">
-            <v>38.259998958056819</v>
-          </cell>
-          <cell r="M6">
-            <v>38.260000180720937</v>
-          </cell>
-          <cell r="N6">
-            <v>38.110000608339433</v>
-          </cell>
-          <cell r="O6">
-            <v>38.409998944225379</v>
-          </cell>
-          <cell r="P6">
-            <v>38.430000915151403</v>
-          </cell>
-          <cell r="Q6">
-            <v>38.51999993949601</v>
-          </cell>
-          <cell r="R6">
-            <v>38.560001088530569</v>
-          </cell>
-          <cell r="S6">
-            <v>38.740000970806214</v>
-          </cell>
-          <cell r="T6">
-            <v>38.85000097656868</v>
-          </cell>
-          <cell r="U6">
-            <v>38.999999222988272</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>14</v>
-          </cell>
-          <cell r="L7">
-            <v>14.000000108315001</v>
-          </cell>
-          <cell r="M7">
-            <v>13.999999806108626</v>
-          </cell>
-          <cell r="N7">
-            <v>13.999999748986674</v>
-          </cell>
-          <cell r="O7">
-            <v>14.000000379920184</v>
-          </cell>
-          <cell r="P7">
-            <v>14.000000293094232</v>
-          </cell>
-          <cell r="Q7">
-            <v>13.999999509048447</v>
-          </cell>
-          <cell r="R7">
-            <v>13.999999576064937</v>
-          </cell>
-          <cell r="S7">
-            <v>13.999999862124477</v>
-          </cell>
-          <cell r="T7">
-            <v>14.000000358891684</v>
-          </cell>
-          <cell r="U7">
-            <v>13.999999930118202</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>26.436665511450485</v>
-          </cell>
-          <cell r="L8">
-            <v>26.065005050848569</v>
-          </cell>
-          <cell r="M8">
-            <v>25.961495108007071</v>
-          </cell>
-          <cell r="N8">
-            <v>25.531014474531759</v>
-          </cell>
-          <cell r="O8">
-            <v>25.843172868753484</v>
-          </cell>
-          <cell r="P8">
-            <v>26.793021648355463</v>
-          </cell>
-          <cell r="Q8">
-            <v>26.786318243881073</v>
-          </cell>
-          <cell r="R8">
-            <v>26.168637600813259</v>
-          </cell>
-          <cell r="S8">
-            <v>26.659965993421157</v>
-          </cell>
-          <cell r="T8">
-            <v>27.016240445692489</v>
-          </cell>
-          <cell r="U8">
-            <v>26.977445511114617</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>28.829999901213348</v>
-          </cell>
-          <cell r="L9">
-            <v>28.830000062087507</v>
-          </cell>
-          <cell r="M9">
-            <v>28.829996791359196</v>
-          </cell>
-          <cell r="N9">
-            <v>28.829996297848346</v>
-          </cell>
-          <cell r="O9">
-            <v>28.829998215308454</v>
-          </cell>
-          <cell r="P9">
-            <v>28.83000207582332</v>
-          </cell>
-          <cell r="Q9">
-            <v>28.829995050999777</v>
-          </cell>
-          <cell r="R9">
-            <v>28.829996754598554</v>
-          </cell>
-          <cell r="S9">
-            <v>28.829999073505032</v>
-          </cell>
-          <cell r="T9">
-            <v>28.830005119721349</v>
-          </cell>
-          <cell r="U9">
-            <v>28.830002406580906</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>38.299998399923197</v>
-          </cell>
-          <cell r="L10">
-            <v>38.299931844114475</v>
-          </cell>
-          <cell r="M10">
-            <v>38.300002287300146</v>
-          </cell>
-          <cell r="N10">
-            <v>38.300022546602378</v>
-          </cell>
-          <cell r="O10">
-            <v>38.299933175988855</v>
-          </cell>
-          <cell r="P10">
-            <v>38.299956398350787</v>
-          </cell>
-          <cell r="Q10">
-            <v>38.299949311917906</v>
-          </cell>
-          <cell r="R10">
-            <v>38.300029726613161</v>
-          </cell>
-          <cell r="S10">
-            <v>38.300027818991097</v>
-          </cell>
-          <cell r="T10">
-            <v>38.299954894000905</v>
-          </cell>
-          <cell r="U10">
-            <v>38.300025305449751</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="K11">
             <v>3.6</v>
@@ -17883,41 +16978,6 @@
           </cell>
           <cell r="U23">
             <v>704.54700000000003</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="L24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="M24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="N24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="O24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="P24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="Q24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="R24">
-            <v>23.825845566410475</v>
-          </cell>
-          <cell r="S24">
-            <v>25.785579568642955</v>
-          </cell>
-          <cell r="T24">
-            <v>25.115648483146426</v>
-          </cell>
-          <cell r="U24">
-            <v>19.892782210730346</v>
           </cell>
         </row>
         <row r="29">
@@ -38672,21 +37732,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D8D4AF-30AC-485A-A12C-A57528005819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35716D6-0CAE-4E0A-A3D5-D72EA4A5A439}">
   <dimension ref="A1:X174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -38760,7 +37820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -38777,7 +37837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -38794,7 +37854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -38814,51 +37874,51 @@
         <v>21</v>
       </c>
       <c r="M5">
-        <f ca="1">[1]Control!$B$3</f>
+        <f>[1]Control!$B$3</f>
         <v>2020</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:W11" ca="1" si="0">M5</f>
+        <f t="shared" ref="N5:W11" si="0">M5</f>
         <v>2020</v>
       </c>
       <c r="O5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="P5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="Q5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="R5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="S5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="T5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="U5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="V5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="W5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -38881,51 +37941,51 @@
         <v>25</v>
       </c>
       <c r="M6">
-        <f ca="1">[1]Coefficients!L54</f>
+        <f>[1]Coefficients!L54</f>
         <v>28</v>
       </c>
       <c r="N6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="O6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="P6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Q6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="R6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="T6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="U6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="V6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -38948,51 +38008,51 @@
         <v>25</v>
       </c>
       <c r="M7">
-        <f ca="1">[1]Coefficients!L55</f>
+        <f>[1]Coefficients!L55</f>
         <v>265</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="P7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="R7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="S7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="T7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="U7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="V7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -39018,47 +38078,47 @@
         <v>23500</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="O8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="P8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="Q8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="R8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="S8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="T8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="U8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="V8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="W8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -39078,47 +38138,47 @@
         <v>30</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>Myopic</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -39135,47 +38195,47 @@
         <v>30</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="P10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="R10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="T10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="U10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="V10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="W10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -39195,47 +38255,47 @@
         <v>0.05</v>
       </c>
       <c r="N11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="O11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="Q11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="R11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="S11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="T11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="U11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="W11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -39291,7 +38351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -39311,7 +38371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -39331,7 +38391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -39390,7 +38450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -39410,7 +38470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -39430,7 +38490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -39450,7 +38510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -39473,54 +38533,54 @@
         <v>46</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:W19" ca="1" si="1">M84*1.5</f>
+        <f t="shared" ref="M19:W19" si="1">M84*1.5</f>
         <v>17.984999999999999</v>
       </c>
       <c r="N19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>17.984999999999999</v>
       </c>
       <c r="O19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>7.7099999999999991</v>
       </c>
       <c r="P19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>4.3499999999999996</v>
       </c>
       <c r="Q19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>5.2949999999999999</v>
       </c>
       <c r="R19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>4.5149999999999997</v>
       </c>
       <c r="S19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="T19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
       <c r="U19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>5.67</v>
       </c>
       <c r="V19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>5.67</v>
       </c>
       <c r="W19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>5.67</v>
       </c>
       <c r="X19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -39549,51 +38609,51 @@
         <v>52</v>
       </c>
       <c r="M20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.0659506393256851E-2</v>
       </c>
       <c r="N20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.0269095405659998E-2</v>
       </c>
       <c r="O20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.9926715324116293E-2</v>
       </c>
       <c r="P20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.9020411139724628E-2</v>
       </c>
       <c r="Q20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="R20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="S20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="T20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="U20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="V20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="W20">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E20,[1]Coefficients!$B$60:$B$79,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E20,[1]Coefficients!$B$29:$B$48,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -39622,51 +38682,51 @@
         <v>52</v>
       </c>
       <c r="M21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="O21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="P21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="T21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="U21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="V21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E21,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -39695,51 +38755,51 @@
         <v>54</v>
       </c>
       <c r="M22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.7394051232794818E-7</v>
       </c>
       <c r="N22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.6706745968712354E-7</v>
       </c>
       <c r="O22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.6053998074030376E-7</v>
       </c>
       <c r="P22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4291540484527353E-7</v>
       </c>
       <c r="Q22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="R22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="S22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="T22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="U22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="V22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="W22">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E22,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -39768,51 +38828,51 @@
         <v>55</v>
       </c>
       <c r="M23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.6864964613033235E-7</v>
       </c>
       <c r="N23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.6251962620743449E-7</v>
       </c>
       <c r="O23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5669782066027099E-7</v>
       </c>
       <c r="P23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.409786043214603E-7</v>
       </c>
       <c r="Q23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="R23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="S23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="T23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="U23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="V23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="W23">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E23,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -39832,7 +38892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -39852,7 +38912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -39872,7 +38932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -39931,7 +38991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -39960,51 +39020,51 @@
         <v>52</v>
       </c>
       <c r="M28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.1240875912408773E-2</v>
       </c>
       <c r="N28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.1240875206497651E-2</v>
       </c>
       <c r="O28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.1240879112040998E-2</v>
       </c>
       <c r="P28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.1240874197308142E-2</v>
       </c>
       <c r="Q28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
       <c r="R28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
       <c r="S28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
       <c r="T28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
       <c r="U28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
       <c r="V28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
       <c r="W28">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E28,[1]Coefficients!$B$60:$B$79,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E28,[1]Coefficients!$B$29:$B$48,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.124087870254903E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -40033,51 +39093,51 @@
         <v>52</v>
       </c>
       <c r="M29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="O29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="P29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="S29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="T29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="V29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E29,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -40106,51 +39166,51 @@
         <v>54</v>
       </c>
       <c r="M30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810218978103E-6</v>
       </c>
       <c r="N30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810049559439E-6</v>
       </c>
       <c r="O30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810986889842E-6</v>
       </c>
       <c r="P30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897809807353955E-6</v>
       </c>
       <c r="Q30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
       <c r="R30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
       <c r="S30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
       <c r="T30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
       <c r="U30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
       <c r="V30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
       <c r="W30">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E30,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1897810888611765E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -40179,51 +39239,51 @@
         <v>55</v>
       </c>
       <c r="M31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496350364963505E-7</v>
       </c>
       <c r="N31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496350082599063E-7</v>
       </c>
       <c r="O31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351644816402E-7</v>
       </c>
       <c r="P31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496349678923251E-7</v>
       </c>
       <c r="Q31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
       <c r="R31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
       <c r="S31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
       <c r="T31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
       <c r="U31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
       <c r="V31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
       <c r="W31">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E31,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.6496351481019606E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -40243,7 +39303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -40263,7 +39323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -40283,7 +39343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -40306,54 +39366,54 @@
         <v>46</v>
       </c>
       <c r="M35" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>3.3868227490873544</v>
       </c>
       <c r="N35" cm="1">
-        <f t="array" aca="1" ref="N35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>3.287415745294838</v>
       </c>
       <c r="O35" cm="1">
-        <f t="array" aca="1" ref="O35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="P35" cm="1">
-        <f t="array" aca="1" ref="P35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="Q35" cm="1">
-        <f t="array" aca="1" ref="Q35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="R35" cm="1">
-        <f t="array" aca="1" ref="R35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="S35" cm="1">
-        <f t="array" aca="1" ref="S35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="T35" cm="1">
-        <f t="array" aca="1" ref="T35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="U35" cm="1">
-        <f t="array" aca="1" ref="U35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="V35" cm="1">
-        <f t="array" aca="1" ref="V35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="W35" cm="1">
-        <f t="array" aca="1" ref="W35" ca="1">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W35">INDEX([1]!JCIMS_prices,MATCH($E35,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>2.9891947339172846</v>
       </c>
       <c r="X35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -40382,51 +39442,51 @@
         <v>52</v>
       </c>
       <c r="M36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0091975639588225E-2</v>
       </c>
       <c r="N36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3828873070901838E-2</v>
       </c>
       <c r="O36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1571494077919054E-2</v>
       </c>
       <c r="P36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0767021208888012E-2</v>
       </c>
       <c r="Q36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
       <c r="R36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
       <c r="S36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
       <c r="T36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
       <c r="U36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
       <c r="V36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
       <c r="W36">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E36,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.1419557348284474E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -40455,51 +39515,51 @@
         <v>54</v>
       </c>
       <c r="M37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.099660992763225E-6</v>
       </c>
       <c r="N37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.150968508982634E-6</v>
       </c>
       <c r="O37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1199747470652502E-6</v>
       </c>
       <c r="P37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1089293529824441E-6</v>
       </c>
       <c r="Q37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
       <c r="R37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
       <c r="S37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
       <c r="T37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
       <c r="U37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
       <c r="V37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
       <c r="W37">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E37,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.1178886592441805E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -40528,51 +39588,51 @@
         <v>55</v>
       </c>
       <c r="M38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.3310732850881664E-7</v>
       </c>
       <c r="N38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.6731233932175597E-7</v>
       </c>
       <c r="O38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4664983137683352E-7</v>
       </c>
       <c r="P38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.3928623532162953E-7</v>
       </c>
       <c r="Q38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
       <c r="R38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
       <c r="S38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
       <c r="T38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
       <c r="U38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
       <c r="V38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
       <c r="W38">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E38,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.45259106162787E-7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -40592,7 +39652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -40612,7 +39672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -40632,7 +39692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -40655,54 +39715,54 @@
         <v>46</v>
       </c>
       <c r="M42" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>3.4716607615953659</v>
       </c>
       <c r="N42" cm="1">
-        <f t="array" aca="1" ref="N42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>3.6789914519903935</v>
       </c>
       <c r="O42" cm="1">
-        <f t="array" aca="1" ref="O42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="P42" cm="1">
-        <f t="array" aca="1" ref="P42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="Q42" cm="1">
-        <f t="array" aca="1" ref="Q42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="R42" cm="1">
-        <f t="array" aca="1" ref="R42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="S42" cm="1">
-        <f t="array" aca="1" ref="S42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="T42" cm="1">
-        <f t="array" aca="1" ref="T42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="U42" cm="1">
-        <f t="array" aca="1" ref="U42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="V42" cm="1">
-        <f t="array" aca="1" ref="V42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="W42" cm="1">
-        <f t="array" aca="1" ref="W42" ca="1">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W42">INDEX([1]!JCIMS_prices,MATCH($E42,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="X42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -40731,51 +39791,51 @@
         <v>52</v>
       </c>
       <c r="M43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896543936709</v>
       </c>
       <c r="N43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896611747185</v>
       </c>
       <c r="O43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005898524737921</v>
       </c>
       <c r="P43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896964909377</v>
       </c>
       <c r="Q43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
       <c r="R43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
       <c r="S43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
       <c r="T43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
       <c r="U43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
       <c r="V43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
       <c r="W43">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E43,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0.11005896413461123</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -40804,51 +39864,51 @@
         <v>54</v>
       </c>
       <c r="M44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0405827176744446E-6</v>
       </c>
       <c r="N44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0405827240857723E-6</v>
       </c>
       <c r="O44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0405829049547356E-6</v>
       </c>
       <c r="P44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0405827574764618E-6</v>
       </c>
       <c r="Q44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
       <c r="R44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
       <c r="S44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
       <c r="T44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
       <c r="U44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
       <c r="V44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
       <c r="W44">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E44,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.040582705338272E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -40877,51 +39937,51 @@
         <v>55</v>
       </c>
       <c r="M45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372181178296311E-7</v>
       </c>
       <c r="N45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372181605718157E-7</v>
       </c>
       <c r="O45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.937219366364905E-7</v>
       </c>
       <c r="P45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372183831764121E-7</v>
       </c>
       <c r="Q45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
       <c r="R45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
       <c r="S45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
       <c r="T45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
       <c r="U45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
       <c r="V45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
       <c r="W45">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E45,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9372180355884812E-7</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -40941,7 +40001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -40961,7 +40021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -40981,7 +40041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -41004,54 +40064,54 @@
         <v>46</v>
       </c>
       <c r="M49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
         <v>32.72</v>
       </c>
       <c r="N49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
         <v>32.72</v>
       </c>
       <c r="O49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
         <v>31.21</v>
       </c>
       <c r="P49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
         <v>30.13</v>
       </c>
       <c r="Q49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
         <v>31.11</v>
       </c>
       <c r="R49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
         <v>34.049999999999997</v>
       </c>
       <c r="S49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
         <v>34.49</v>
       </c>
       <c r="T49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
         <v>34.56</v>
       </c>
       <c r="U49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
         <v>34.89</v>
       </c>
       <c r="V49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
         <v>34.92</v>
       </c>
       <c r="W49">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A49,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
         <v>34.53</v>
       </c>
       <c r="X49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -41080,51 +40140,51 @@
         <v>52</v>
       </c>
       <c r="M50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.9545118551339213E-2</v>
       </c>
       <c r="N50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.0235111930450358E-2</v>
       </c>
       <c r="O50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.0235079897689179E-2</v>
       </c>
       <c r="P50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023507865734982E-2</v>
       </c>
       <c r="Q50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="R50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="S50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="T50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="U50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="V50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="W50">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E50,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.023511852444228E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -41153,51 +40213,51 @@
         <v>54</v>
       </c>
       <c r="M51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4384761216833145E-6</v>
       </c>
       <c r="N51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725910359665046E-6</v>
       </c>
       <c r="O51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725894521905806E-6</v>
       </c>
       <c r="P51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725893908652516E-6</v>
       </c>
       <c r="Q51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="R51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="S51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="T51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="U51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="V51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="W51">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E51,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4725913619891544E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -41226,51 +40286,51 @@
         <v>55</v>
       </c>
       <c r="M52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0341281568972375E-5</v>
       </c>
       <c r="N52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443882814936855E-5</v>
       </c>
       <c r="O52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443878051700994E-5</v>
       </c>
       <c r="P52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443877867263915E-5</v>
       </c>
       <c r="Q52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="R52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="S52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="T52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="U52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="V52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="W52">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E52,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.0443883795456103E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -41290,7 +40350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -41310,7 +40370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -41330,7 +40390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -41353,54 +40413,54 @@
         <v>46</v>
       </c>
       <c r="M56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
         <v>14.71</v>
       </c>
       <c r="N56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
         <v>14.71</v>
       </c>
       <c r="O56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
         <v>19.25</v>
       </c>
       <c r="P56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
         <v>18.510000000000002</v>
       </c>
       <c r="Q56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
         <v>22.73</v>
       </c>
       <c r="R56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
         <v>27.03</v>
       </c>
       <c r="S56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
         <v>27.91</v>
       </c>
       <c r="T56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
         <v>27.49</v>
       </c>
       <c r="U56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
         <v>27.21</v>
       </c>
       <c r="V56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
         <v>26.69</v>
       </c>
       <c r="W56">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Industrial"&amp;$A56,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
         <v>25.91</v>
       </c>
       <c r="X56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -41429,51 +40489,51 @@
         <v>52</v>
       </c>
       <c r="M57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4258820594561403E-2</v>
       </c>
       <c r="N57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4258832926937329E-2</v>
       </c>
       <c r="O57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4258830425409775E-2</v>
       </c>
       <c r="P57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4258813837745491E-2</v>
       </c>
       <c r="Q57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
       <c r="R57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
       <c r="S57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
       <c r="T57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
       <c r="U57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
       <c r="V57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
       <c r="W57">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E57,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.4259150432924262E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -41502,51 +40562,51 @@
         <v>54</v>
       </c>
       <c r="M58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235293001734373E-6</v>
       </c>
       <c r="N58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235297690850697E-6</v>
       </c>
       <c r="O58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235296739699532E-6</v>
       </c>
       <c r="P58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235290432602849E-6</v>
       </c>
       <c r="Q58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
       <c r="R58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
       <c r="S58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
       <c r="T58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
       <c r="U58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
       <c r="V58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
       <c r="W58">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E58,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8235418415560557E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -41575,51 +40635,51 @@
         <v>55</v>
       </c>
       <c r="M59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058822934258332E-6</v>
       </c>
       <c r="N59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058825435120371E-6</v>
       </c>
       <c r="O59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058824927839748E-6</v>
       </c>
       <c r="P59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058821564054852E-6</v>
       </c>
       <c r="Q59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
       <c r="R59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
       <c r="S59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
       <c r="T59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
       <c r="U59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
       <c r="V59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
       <c r="W59">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E59,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5058889821632295E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -41639,7 +40699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -41659,7 +40719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -41679,7 +40739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -41702,54 +40762,54 @@
         <v>46</v>
       </c>
       <c r="M63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
         <v>34.94</v>
       </c>
       <c r="N63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
         <v>34.94</v>
       </c>
       <c r="O63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
         <v>34.200000000000003</v>
       </c>
       <c r="P63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
         <v>31.89</v>
       </c>
       <c r="Q63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
         <v>35.01</v>
       </c>
       <c r="R63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
         <v>38.33</v>
       </c>
       <c r="S63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
         <v>38.74</v>
       </c>
       <c r="T63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
         <v>38.67</v>
       </c>
       <c r="U63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
         <v>38.909999999999997</v>
       </c>
       <c r="V63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
         <v>38.86</v>
       </c>
       <c r="W63">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Transportation"&amp;$A63,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
         <v>38.39</v>
       </c>
       <c r="X63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -41778,51 +40838,51 @@
         <v>52</v>
       </c>
       <c r="M64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6820544015017649E-2</v>
       </c>
       <c r="N64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.617145172090251E-2</v>
       </c>
       <c r="O64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171385002939842E-2</v>
       </c>
       <c r="P64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171491685726766E-2</v>
       </c>
       <c r="Q64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="R64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="S64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="T64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="U64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="V64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="W64">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E64,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.6171498750999591E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -41851,51 +40911,51 @@
         <v>54</v>
       </c>
       <c r="M65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8851702942581023E-6</v>
       </c>
       <c r="N65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571438566883642E-6</v>
       </c>
       <c r="O65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571409759473164E-6</v>
       </c>
       <c r="P65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571455822852664E-6</v>
       </c>
       <c r="Q65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="R65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="S65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="T65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="U65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="V65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="W65">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E65,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.8571458873488601E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -41924,51 +40984,51 @@
         <v>55</v>
       </c>
       <c r="M66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.7703405885162051E-7</v>
       </c>
       <c r="N66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.7142877133767288E-7</v>
       </c>
       <c r="O66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.7142819518946321E-7</v>
       </c>
       <c r="P66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.7142911645705326E-7</v>
       </c>
       <c r="Q66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="R66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="S66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="T66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="U66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="V66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="W66">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E66,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.71429177469772E-7</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -41988,7 +41048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -42008,7 +41068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -42028,7 +41088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -42051,54 +41111,54 @@
         <v>46</v>
       </c>
       <c r="M70" cm="1">
-        <f t="array" aca="1" ref="M70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>22.519919250358978</v>
       </c>
       <c r="N70" cm="1">
-        <f t="array" aca="1" ref="N70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>25.974377625801658</v>
       </c>
       <c r="O70" cm="1">
-        <f t="array" aca="1" ref="O70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>34.832046245850542</v>
       </c>
       <c r="P70" cm="1">
-        <f t="array" aca="1" ref="P70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>35.584899498990282</v>
       </c>
       <c r="Q70" cm="1">
-        <f t="array" aca="1" ref="Q70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>42.035931261204688</v>
       </c>
       <c r="R70" cm="1">
-        <f t="array" aca="1" ref="R70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>44.595473418587396</v>
       </c>
       <c r="S70" cm="1">
-        <f t="array" aca="1" ref="S70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>46.29150031902018</v>
       </c>
       <c r="T70" cm="1">
-        <f t="array" aca="1" ref="T70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>47.05574628232727</v>
       </c>
       <c r="U70" cm="1">
-        <f t="array" aca="1" ref="U70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>48.437242689417488</v>
       </c>
       <c r="V70" cm="1">
-        <f t="array" aca="1" ref="V70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>48.437242689417488</v>
       </c>
       <c r="W70" cm="1">
-        <f t="array" aca="1" ref="W70" ca="1">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W70">INDEX([1]!JCIMS_prices,MATCH($E70,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>48.437242689417488</v>
       </c>
       <c r="X70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -42127,51 +41187,51 @@
         <v>52</v>
       </c>
       <c r="M71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.0387861677160102E-2</v>
       </c>
       <c r="N71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.844885998589674E-2</v>
       </c>
       <c r="O71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8448873072360611E-2</v>
       </c>
       <c r="P71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8448884545662614E-2</v>
       </c>
       <c r="Q71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
       <c r="R71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
       <c r="S71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
       <c r="T71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
       <c r="U71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
       <c r="V71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
       <c r="W71">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E71,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>6.8449580905341784E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -42200,51 +41260,51 @@
         <v>54</v>
       </c>
       <c r="M72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.9736249556157934E-7</v>
       </c>
       <c r="N72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7539724202773649E-7</v>
       </c>
       <c r="O72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7539739027283511E-7</v>
       </c>
       <c r="P72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7539752024383434E-7</v>
       </c>
       <c r="Q72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
       <c r="R72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
       <c r="S72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
       <c r="T72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
       <c r="U72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
       <c r="V72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
       <c r="W72">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E72,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.7540540869332489E-7</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -42273,51 +41333,51 @@
         <v>55</v>
       </c>
       <c r="M73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.9521633512024873E-6</v>
       </c>
       <c r="N73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8983863511713548E-6</v>
       </c>
       <c r="O73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8983867141162517E-6</v>
       </c>
       <c r="P73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8983870323211118E-6</v>
       </c>
       <c r="Q73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
       <c r="R73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
       <c r="S73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
       <c r="T73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
       <c r="U73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
       <c r="V73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
       <c r="W73">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E73,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.8984063454215886E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -42337,7 +41397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -42357,7 +41417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -42377,7 +41437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -42400,54 +41460,54 @@
         <v>46</v>
       </c>
       <c r="M77" cm="1">
-        <f t="array" aca="1" ref="M77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>44.370594789134067</v>
       </c>
       <c r="N77" cm="1">
-        <f t="array" aca="1" ref="N77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>35.647320687620834</v>
       </c>
       <c r="O77" cm="1">
-        <f t="array" aca="1" ref="O77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>45.389873032196903</v>
       </c>
       <c r="P77" cm="1">
-        <f t="array" aca="1" ref="P77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>27.433685707639139</v>
       </c>
       <c r="Q77" cm="1">
-        <f t="array" aca="1" ref="Q77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>36.56916338547429</v>
       </c>
       <c r="R77" cm="1">
-        <f t="array" aca="1" ref="R77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>38.910973204281611</v>
       </c>
       <c r="S77" cm="1">
-        <f t="array" aca="1" ref="S77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>39.680924020988954</v>
       </c>
       <c r="T77" cm="1">
-        <f t="array" aca="1" ref="T77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>40.358633783686564</v>
       </c>
       <c r="U77" cm="1">
-        <f t="array" aca="1" ref="U77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>41.147645603767486</v>
       </c>
       <c r="V77" cm="1">
-        <f t="array" aca="1" ref="V77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>41.147645603767486</v>
       </c>
       <c r="W77" cm="1">
-        <f t="array" aca="1" ref="W77" ca="1">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W77">INDEX([1]!JCIMS_prices,MATCH($E77,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>41.147645603767486</v>
       </c>
       <c r="X77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -42476,51 +41536,51 @@
         <v>52</v>
       </c>
       <c r="M78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6428552456839302E-2</v>
       </c>
       <c r="N78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="O78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="P78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="Q78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="R78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="S78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="T78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="U78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="V78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
       <c r="W78">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E78,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.6530067848684633E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -42549,51 +41609,51 @@
         <v>54</v>
       </c>
       <c r="M79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9391766268260293E-7</v>
       </c>
       <c r="N79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="O79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="P79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="Q79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="R79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="S79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="T79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="U79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="V79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
       <c r="W79">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E79,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.9552582730589518E-7</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -42622,51 +41682,51 @@
         <v>55</v>
       </c>
       <c r="M80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0226294820717126E-6</v>
       </c>
       <c r="N80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="O80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="P80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="Q80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="R80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="S80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="T80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="U80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="V80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
       <c r="W80">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E80,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.0298662228765281E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -42686,7 +41746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -42706,7 +41766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -42726,7 +41786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -42749,54 +41809,54 @@
         <v>46</v>
       </c>
       <c r="M84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(M$2,[1]!CER_year,0)),2)</f>
         <v>11.99</v>
       </c>
       <c r="N84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(N$2,[1]!CER_year,0)),2)</f>
         <v>11.99</v>
       </c>
       <c r="O84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(O$2,[1]!CER_year,0)),2)</f>
         <v>5.14</v>
       </c>
       <c r="P84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(P$2,[1]!CER_year,0)),2)</f>
         <v>2.9</v>
       </c>
       <c r="Q84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(Q$2,[1]!CER_year,0)),2)</f>
         <v>3.53</v>
       </c>
       <c r="R84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(R$2,[1]!CER_year,0)),2)</f>
         <v>3.01</v>
       </c>
       <c r="S84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(S$2,[1]!CER_year,0)),2)</f>
         <v>3.4</v>
       </c>
       <c r="T84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(T$2,[1]!CER_year,0)),2)</f>
         <v>3.6</v>
       </c>
       <c r="U84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(U$2,[1]!CER_year,0)),2)</f>
         <v>3.78</v>
       </c>
       <c r="V84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(V$2,[1]!CER_year,0)),2)</f>
         <v>3.78</v>
       </c>
       <c r="W84">
-        <f ca="1">ROUND(INDEX([1]!CER_prices,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prices_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
+        <f>ROUND(INDEX([1]!CER_prod_cost,MATCH("CAN"&amp;"Production cost"&amp;$A84,[1]!CER_prod_cost_index,0),MATCH(W$2,[1]!CER_year,0)),2)</f>
         <v>3.78</v>
       </c>
       <c r="X84" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -42825,51 +41885,51 @@
         <v>52</v>
       </c>
       <c r="M85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.0659506393256851E-2</v>
       </c>
       <c r="N85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.0269095405659998E-2</v>
       </c>
       <c r="O85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.9926715324116293E-2</v>
       </c>
       <c r="P85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.9020411139724628E-2</v>
       </c>
       <c r="Q85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="R85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="S85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="T85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="U85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="V85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
       <c r="W85">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E85,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8970518393498863E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -42898,51 +41958,51 @@
         <v>54</v>
       </c>
       <c r="M86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.7394051232794818E-7</v>
       </c>
       <c r="N86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.6706745968712354E-7</v>
       </c>
       <c r="O86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.6053998074030376E-7</v>
       </c>
       <c r="P86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4291540484527353E-7</v>
       </c>
       <c r="Q86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="R86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="S86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="T86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="U86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="V86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
       <c r="W86">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E86,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4195570993630577E-7</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -42971,51 +42031,51 @@
         <v>55</v>
       </c>
       <c r="M87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.6864964613033235E-7</v>
       </c>
       <c r="N87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.6251962620743449E-7</v>
       </c>
       <c r="O87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5669782066027099E-7</v>
       </c>
       <c r="P87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.409786043214603E-7</v>
       </c>
       <c r="Q87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="R87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="S87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="T87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="U87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="V87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
       <c r="W87">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E87,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.4012266021346199E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -43035,7 +42095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -43055,7 +42115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -43075,7 +42135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -43098,51 +42158,51 @@
         <v>46</v>
       </c>
       <c r="M91">
-        <f t="shared" ref="M91:W91" ca="1" si="2">M84</f>
+        <f t="shared" ref="M91:W91" si="2">M84</f>
         <v>11.99</v>
       </c>
       <c r="N91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>11.99</v>
       </c>
       <c r="O91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>5.14</v>
       </c>
       <c r="P91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
       <c r="Q91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.53</v>
       </c>
       <c r="R91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.01</v>
       </c>
       <c r="S91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
       <c r="T91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
       <c r="U91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
       <c r="V91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
       <c r="W91">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -43162,7 +42222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -43182,7 +42242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -43202,7 +42262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>84</v>
       </c>
@@ -43225,54 +42285,54 @@
         <v>46</v>
       </c>
       <c r="M95" cm="1">
-        <f t="array" aca="1" ref="M95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>3.4716607615953659</v>
       </c>
       <c r="N95" cm="1">
-        <f t="array" aca="1" ref="N95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>3.6789914519903935</v>
       </c>
       <c r="O95" cm="1">
-        <f t="array" aca="1" ref="O95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="P95" cm="1">
-        <f t="array" aca="1" ref="P95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="Q95" cm="1">
-        <f t="array" aca="1" ref="Q95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="R95" cm="1">
-        <f t="array" aca="1" ref="R95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="S95" cm="1">
-        <f t="array" aca="1" ref="S95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="T95" cm="1">
-        <f t="array" aca="1" ref="T95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="U95" cm="1">
-        <f t="array" aca="1" ref="U95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="V95" cm="1">
-        <f t="array" aca="1" ref="V95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="W95" cm="1">
-        <f t="array" aca="1" ref="W95" ca="1">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W95">INDEX([1]!JCIMS_prices,MATCH($E95,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>4.300983523175435</v>
       </c>
       <c r="X95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -43301,51 +42361,51 @@
         <v>52</v>
       </c>
       <c r="M96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.762551786473218E-2</v>
       </c>
       <c r="N96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.9901480514705525E-2</v>
       </c>
       <c r="O96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0477022875806686E-2</v>
       </c>
       <c r="P96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>7.9010927100618897E-2</v>
       </c>
       <c r="Q96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
       <c r="R96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
       <c r="S96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
       <c r="T96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
       <c r="U96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
       <c r="V96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
       <c r="W96">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E96,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.0332825143026143E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -43374,51 +42434,51 @@
         <v>54</v>
       </c>
       <c r="M97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5889967532216271E-6</v>
       </c>
       <c r="N97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5889967686127557E-6</v>
       </c>
       <c r="O97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5889975645349421E-6</v>
       </c>
       <c r="P97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888319141025715E-6</v>
       </c>
       <c r="Q97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
       <c r="R97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
       <c r="S97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
       <c r="T97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
       <c r="U97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
       <c r="V97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
       <c r="W97">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E97,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.5888326702776725E-6</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>84</v>
       </c>
@@ -43447,51 +42507,51 @@
         <v>55</v>
       </c>
       <c r="M98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9546925324097432E-7</v>
       </c>
       <c r="N98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9331175947375652E-7</v>
       </c>
       <c r="O98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9331194187259091E-7</v>
       </c>
       <c r="P98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327398031517265E-7</v>
       </c>
       <c r="Q98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
       <c r="R98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
       <c r="S98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
       <c r="T98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
       <c r="U98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
       <c r="V98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
       <c r="W98">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E98,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9327415360529985E-7</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -43511,7 +42571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -43531,7 +42591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -43551,7 +42611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -43574,54 +42634,54 @@
         <v>46</v>
       </c>
       <c r="M102" cm="1">
-        <f t="array" aca="1" ref="M102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M102">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>17.153003406339085</v>
       </c>
-      <c r="N102" cm="1">
-        <f t="array" aca="1" ref="N102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>35.647320687620834</v>
-      </c>
-      <c r="O102" cm="1">
-        <f t="array" aca="1" ref="O102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>60.19307683425837</v>
-      </c>
-      <c r="P102" cm="1">
-        <f t="array" aca="1" ref="P102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>75.661674682862667</v>
-      </c>
-      <c r="Q102" cm="1">
-        <f t="array" aca="1" ref="Q102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>86.900144255388852</v>
-      </c>
-      <c r="R102" cm="1">
-        <f t="array" aca="1" ref="R102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>91.485863577011884</v>
-      </c>
-      <c r="S102" cm="1">
-        <f t="array" aca="1" ref="S102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>94.820865013930884</v>
-      </c>
-      <c r="T102" cm="1">
-        <f t="array" aca="1" ref="T102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>96.624320844533045</v>
-      </c>
-      <c r="U102" cm="1">
-        <f t="array" aca="1" ref="U102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>98.741368095361835</v>
-      </c>
-      <c r="V102" cm="1">
-        <f t="array" aca="1" ref="V102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>98.741368095361835</v>
-      </c>
-      <c r="W102" cm="1">
-        <f t="array" aca="1" ref="W102" ca="1">INDEX([1]!JCIMS_prices,MATCH($E102,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
-        <v>98.741368095361835</v>
+      <c r="N102">
+        <f>M102</f>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="O102">
+        <f t="shared" ref="O102:W102" si="3">N102</f>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="3"/>
+        <v>17.153003406339085</v>
       </c>
       <c r="X102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -43650,51 +42710,51 @@
         <v>52</v>
       </c>
       <c r="M103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9857766397253279E-2</v>
       </c>
       <c r="N103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.985775273523862E-2</v>
       </c>
       <c r="O103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9857810547601559E-2</v>
       </c>
       <c r="P103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9857814030780346E-2</v>
       </c>
       <c r="Q103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
       <c r="R103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
       <c r="S103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
       <c r="T103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
       <c r="U103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
       <c r="V103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
       <c r="W103">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E103,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9860457516754152E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -43723,51 +42783,51 @@
         <v>54</v>
       </c>
       <c r="M104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4824184391688377E-7</v>
       </c>
       <c r="N104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.482416274889288E-7</v>
       </c>
       <c r="O104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4824254332834167E-7</v>
       </c>
       <c r="P104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4824259850741151E-7</v>
       </c>
       <c r="Q104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
       <c r="R104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
       <c r="S104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
       <c r="T104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
       <c r="U104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
       <c r="V104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
       <c r="W104">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E104,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.4828447551293711E-7</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -43796,51 +42856,51 @@
         <v>55</v>
       </c>
       <c r="M105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2670882976259764E-6</v>
       </c>
       <c r="N105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2670873237001795E-6</v>
       </c>
       <c r="O105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2670914449775371E-6</v>
       </c>
       <c r="P105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2670916932833516E-6</v>
       </c>
       <c r="Q105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
       <c r="R105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
       <c r="S105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
       <c r="T105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
       <c r="U105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
       <c r="V105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
       <c r="W105">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E105,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2672801398082167E-6</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -43860,7 +42920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -43880,7 +42940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>90</v>
       </c>
@@ -43900,7 +42960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>90</v>
       </c>
@@ -43923,54 +42983,54 @@
         <v>46</v>
       </c>
       <c r="M109" cm="1">
-        <f t="array" aca="1" ref="M109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="N109" cm="1">
-        <f t="array" aca="1" ref="N109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="O109" cm="1">
-        <f t="array" aca="1" ref="O109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="P109" cm="1">
-        <f t="array" aca="1" ref="P109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="Q109" cm="1">
-        <f t="array" aca="1" ref="Q109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="R109" cm="1">
-        <f t="array" aca="1" ref="R109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="S109" cm="1">
-        <f t="array" aca="1" ref="S109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="T109" cm="1">
-        <f t="array" aca="1" ref="T109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="U109" cm="1">
-        <f t="array" aca="1" ref="U109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="V109" cm="1">
-        <f t="array" aca="1" ref="V109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="W109" cm="1">
-        <f t="array" aca="1" ref="W109" ca="1">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W109">INDEX([1]!JCIMS_prices,MATCH($E109,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0</v>
       </c>
       <c r="X109" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>90</v>
       </c>
@@ -43999,51 +43059,51 @@
         <v>52</v>
       </c>
       <c r="M110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.1259752560403472E-2</v>
       </c>
       <c r="N110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.2366651626647394E-2</v>
       </c>
       <c r="O110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.4633254600389917E-2</v>
       </c>
       <c r="P110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.9238777445698089E-2</v>
       </c>
       <c r="Q110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
       <c r="R110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
       <c r="S110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
       <c r="T110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
       <c r="U110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
       <c r="V110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
       <c r="W110">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E110,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.513328633900514E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>90</v>
       </c>
@@ -44072,51 +43132,51 @@
         <v>54</v>
       </c>
       <c r="M111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>9.3680709534368085E-7</v>
       </c>
       <c r="N111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.8691796008869141E-7</v>
       </c>
       <c r="O111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.8968957871396907E-7</v>
       </c>
       <c r="P111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="Q111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="R111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="S111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="T111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="U111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="V111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
       <c r="W111">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E111,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.5920177383592024E-7</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -44145,51 +43205,51 @@
         <v>55</v>
       </c>
       <c r="M112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="N112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="O112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="P112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="Q112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="R112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="S112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="T112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="U112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="V112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
       <c r="W112">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E112,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>5.5432372505543243E-10</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>93</v>
       </c>
@@ -44209,7 +43269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -44229,7 +43289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -44249,7 +43309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>93</v>
       </c>
@@ -44308,7 +43368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>93</v>
       </c>
@@ -44337,51 +43397,51 @@
         <v>52</v>
       </c>
       <c r="M117">
-        <f t="shared" ref="M117:W117" ca="1" si="3">M$50</f>
+        <f t="shared" ref="M117:W117" si="4">M$50</f>
         <v>6.9545118551339213E-2</v>
       </c>
       <c r="N117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0235111930450358E-2</v>
       </c>
       <c r="O117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0235079897689179E-2</v>
       </c>
       <c r="P117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023507865734982E-2</v>
       </c>
       <c r="Q117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="R117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="S117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="T117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="U117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="V117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
       <c r="W117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.023511852444228E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -44443,7 +43503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -44472,51 +43532,51 @@
         <v>54</v>
       </c>
       <c r="M119">
-        <f t="shared" ref="M119:W120" ca="1" si="4">M51</f>
+        <f t="shared" ref="M119:W120" si="5">M51</f>
         <v>3.4384761216833145E-6</v>
       </c>
       <c r="N119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725910359665046E-6</v>
       </c>
       <c r="O119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725894521905806E-6</v>
       </c>
       <c r="P119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725893908652516E-6</v>
       </c>
       <c r="Q119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="R119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="S119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="T119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="U119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="V119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
       <c r="W119">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4725913619891544E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>93</v>
       </c>
@@ -44545,51 +43605,51 @@
         <v>55</v>
       </c>
       <c r="M120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0341281568972375E-5</v>
       </c>
       <c r="N120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443882814936855E-5</v>
       </c>
       <c r="O120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443878051700994E-5</v>
       </c>
       <c r="P120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443877867263915E-5</v>
       </c>
       <c r="Q120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="R120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="S120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="T120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="U120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="V120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
       <c r="W120">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0443883795456103E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -44609,7 +43669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -44629,7 +43689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>96</v>
       </c>
@@ -44649,7 +43709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -44708,7 +43768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -44737,51 +43797,51 @@
         <v>52</v>
       </c>
       <c r="M125">
-        <f t="shared" ref="M125:W125" ca="1" si="5">M$64</f>
+        <f t="shared" ref="M125:W125" si="6">M$64</f>
         <v>6.6820544015017649E-2</v>
       </c>
       <c r="N125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.617145172090251E-2</v>
       </c>
       <c r="O125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171385002939842E-2</v>
       </c>
       <c r="P125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171491685726766E-2</v>
       </c>
       <c r="Q125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="R125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="S125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="T125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="U125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="V125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
       <c r="W125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6171498750999591E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>96</v>
       </c>
@@ -44843,7 +43903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -44872,51 +43932,51 @@
         <v>54</v>
       </c>
       <c r="M127">
-        <f t="shared" ref="M127:W128" ca="1" si="6">M65</f>
+        <f t="shared" ref="M127:W128" si="7">M65</f>
         <v>2.8851702942581023E-6</v>
       </c>
       <c r="N127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571438566883642E-6</v>
       </c>
       <c r="O127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571409759473164E-6</v>
       </c>
       <c r="P127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571455822852664E-6</v>
       </c>
       <c r="Q127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="R127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="S127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="T127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="U127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="V127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
       <c r="W127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8571458873488601E-6</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -44945,51 +44005,51 @@
         <v>55</v>
       </c>
       <c r="M128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7703405885162051E-7</v>
       </c>
       <c r="N128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7142877133767288E-7</v>
       </c>
       <c r="O128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7142819518946321E-7</v>
       </c>
       <c r="P128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7142911645705326E-7</v>
       </c>
       <c r="Q128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="R128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="S128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="T128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="U128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="V128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
       <c r="W128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.71429177469772E-7</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -45009,7 +44069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -45029,7 +44089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -45049,7 +44109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>98</v>
       </c>
@@ -45072,54 +44132,54 @@
         <v>46</v>
       </c>
       <c r="M132" cm="1">
-        <f t="array" aca="1" ref="M132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.9275012914504481</v>
       </c>
       <c r="N132" cm="1">
-        <f t="array" aca="1" ref="N132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.5642187023516965</v>
       </c>
       <c r="O132" cm="1">
-        <f t="array" aca="1" ref="O132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="P132" cm="1">
-        <f t="array" aca="1" ref="P132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="Q132" cm="1">
-        <f t="array" aca="1" ref="Q132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="R132" cm="1">
-        <f t="array" aca="1" ref="R132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="S132" cm="1">
-        <f t="array" aca="1" ref="S132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="T132" cm="1">
-        <f t="array" aca="1" ref="T132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="U132" cm="1">
-        <f t="array" aca="1" ref="U132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="V132" cm="1">
-        <f t="array" aca="1" ref="V132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="W132" cm="1">
-        <f t="array" aca="1" ref="W132" ca="1">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W132">INDEX([1]!JCIMS_prices,MATCH($E132,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.47437093505530448</v>
       </c>
       <c r="X132" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>98</v>
       </c>
@@ -45148,51 +44208,51 @@
         <v>52</v>
       </c>
       <c r="M133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904109589041098E-2</v>
       </c>
       <c r="N133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904108793093554E-2</v>
       </c>
       <c r="O133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.390411098210028E-2</v>
       </c>
       <c r="P133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904110039687452E-2</v>
       </c>
       <c r="Q133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
       <c r="R133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
       <c r="S133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
       <c r="T133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
       <c r="U133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
       <c r="V133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
       <c r="W133">
-        <f ca="1">INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$60:$BO$79,MATCH($E133,[1]Coefficients!$B$60:$B$79,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))/INDEX([1]Coefficients!$G$29:$BO$48,MATCH($E133,[1]Coefficients!$B$29:$B$48,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>8.3904125214134248E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>98</v>
       </c>
@@ -45221,51 +44281,51 @@
         <v>52</v>
       </c>
       <c r="M134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="N134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="O134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="P134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="Q134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="R134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="S134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="T134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="U134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="V134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="W134">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E134,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>98</v>
       </c>
@@ -45294,51 +44354,51 @@
         <v>54</v>
       </c>
       <c r="M135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923679060665363E-6</v>
       </c>
       <c r="N135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923678596556005E-6</v>
       </c>
       <c r="O135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923679872944769E-6</v>
       </c>
       <c r="P135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923679323432915E-6</v>
       </c>
       <c r="Q135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
       <c r="R135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
       <c r="S135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
       <c r="T135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
       <c r="U135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
       <c r="V135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
       <c r="W135">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E135,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.8923688171506844E-6</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -45367,51 +44427,51 @@
         <v>55</v>
       </c>
       <c r="M136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246575342465754E-6</v>
       </c>
       <c r="N136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246575017589207E-6</v>
       </c>
       <c r="O136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246575911061337E-6</v>
       </c>
       <c r="P136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246575526403042E-6</v>
       </c>
       <c r="Q136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
       <c r="R136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
       <c r="S136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
       <c r="T136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
       <c r="U136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
       <c r="V136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
       <c r="W136">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E136,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4246581720054794E-6</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>101</v>
       </c>
@@ -45431,7 +44491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>101</v>
       </c>
@@ -45451,7 +44511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>101</v>
       </c>
@@ -45471,7 +44531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>101</v>
       </c>
@@ -45494,54 +44554,54 @@
         <v>46</v>
       </c>
       <c r="M140" cm="1">
-        <f t="array" aca="1" ref="M140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.20274985839690043</v>
       </c>
       <c r="N140" cm="1">
-        <f t="array" aca="1" ref="N140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.20116264914018692</v>
       </c>
       <c r="O140" cm="1">
-        <f t="array" aca="1" ref="O140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="P140" cm="1">
-        <f t="array" aca="1" ref="P140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="Q140" cm="1">
-        <f t="array" aca="1" ref="Q140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="R140" cm="1">
-        <f t="array" aca="1" ref="R140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="S140" cm="1">
-        <f t="array" aca="1" ref="S140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="T140" cm="1">
-        <f t="array" aca="1" ref="T140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="U140" cm="1">
-        <f t="array" aca="1" ref="U140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="V140" cm="1">
-        <f t="array" aca="1" ref="V140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="W140" cm="1">
-        <f t="array" aca="1" ref="W140" ca="1">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W140">INDEX([1]!JCIMS_prices,MATCH($E140,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>0.19640102137004639</v>
       </c>
       <c r="X140" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -45570,51 +44630,51 @@
         <v>52</v>
       </c>
       <c r="M141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="N141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="O141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="P141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="Q141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="R141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="S141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="T141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="U141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="V141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="W141">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E141,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -45643,51 +44703,51 @@
         <v>54</v>
       </c>
       <c r="M142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="N142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="O142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="P142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="Q142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="R142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="S142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="T142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="U142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="V142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="W142">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E142,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>101</v>
       </c>
@@ -45716,51 +44776,51 @@
         <v>55</v>
       </c>
       <c r="M143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="N143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="O143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="P143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="Q143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="R143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="S143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="T143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="U143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="V143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
       <c r="W143">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E143,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>104</v>
       </c>
@@ -45780,7 +44840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>104</v>
       </c>
@@ -45800,7 +44860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -45820,7 +44880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>104</v>
       </c>
@@ -45843,54 +44903,54 @@
         <v>46</v>
       </c>
       <c r="M147" cm="1">
-        <f t="array" aca="1" ref="M147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="M147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(M$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3374069905107038</v>
       </c>
       <c r="N147" cm="1">
-        <f t="array" aca="1" ref="N147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="N147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(N$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3530491775342168</v>
       </c>
       <c r="O147" cm="1">
-        <f t="array" aca="1" ref="O147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="O147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(O$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="P147" cm="1">
-        <f t="array" aca="1" ref="P147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="P147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(P$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="Q147" cm="1">
-        <f t="array" aca="1" ref="Q147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="Q147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(Q$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="R147" cm="1">
-        <f t="array" aca="1" ref="R147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="R147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(R$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="S147" cm="1">
-        <f t="array" aca="1" ref="S147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="S147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(S$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="T147" cm="1">
-        <f t="array" aca="1" ref="T147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="T147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(T$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="U147" cm="1">
-        <f t="array" aca="1" ref="U147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="U147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(U$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="V147" cm="1">
-        <f t="array" aca="1" ref="V147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="V147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(V$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="W147" cm="1">
-        <f t="array" aca="1" ref="W147" ca="1">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
+        <f t="array" ref="W147">INDEX([1]!JCIMS_prices,MATCH($E147,[1]!JCIMS_prices_index,0),MATCH(W$2,[1]!CER_year,0))*[1]!JCIMS_price_inflator</f>
         <v>1.3999757386047567</v>
       </c>
       <c r="X147" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>104</v>
       </c>
@@ -45919,51 +44979,51 @@
         <v>52</v>
       </c>
       <c r="M148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.2569673040020032E-3</v>
       </c>
       <c r="N148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.4080637253216832E-3</v>
       </c>
       <c r="O148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>3.3618953743628924E-3</v>
       </c>
       <c r="P148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.2543029606378771E-3</v>
       </c>
       <c r="Q148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
       <c r="R148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
       <c r="S148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
       <c r="T148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
       <c r="U148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
       <c r="V148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
       <c r="W148">
-        <f ca="1">INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$132:$BO$151,MATCH($E148,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>4.3081124064428527E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -45992,51 +45052,51 @@
         <v>54</v>
       </c>
       <c r="M149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.2591368443306713E-6</v>
       </c>
       <c r="N149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.2591368443306713E-6</v>
       </c>
       <c r="O149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.2591368443306713E-6</v>
       </c>
       <c r="P149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.5933718953699915E-6</v>
       </c>
       <c r="Q149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
       <c r="R149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
       <c r="S149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
       <c r="T149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
       <c r="U149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
       <c r="V149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
       <c r="W149">
-        <f ca="1">INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$156:$BO$175,MATCH($E149,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6135252458587462E-6</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -46065,51 +45125,51 @@
         <v>55</v>
       </c>
       <c r="M150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(M$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6788491257742283E-7</v>
       </c>
       <c r="N150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(N$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6788491257742283E-7</v>
       </c>
       <c r="O150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(O$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>1.6788491257742283E-7</v>
       </c>
       <c r="P150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(P$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1244958604933219E-7</v>
       </c>
       <c r="Q150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(Q$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
       <c r="R150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(R$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
       <c r="S150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(S$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
       <c r="T150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(T$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
       <c r="U150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(U$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
       <c r="V150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(V$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
       <c r="W150">
-        <f ca="1">INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
+        <f>INDEX([1]Coefficients!$G$180:$BO$199,MATCH($E150,[1]Coefficients!$B$132:$B$151,0),MATCH(W$2,[1]Coefficients!$G$1:$BO$1,0))</f>
         <v>2.1513669944783283E-7</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>107</v>
       </c>
@@ -46129,7 +45189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -46149,7 +45209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>107</v>
       </c>
@@ -46208,7 +45268,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>110</v>
       </c>
@@ -46228,7 +45288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -46248,7 +45308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>110</v>
       </c>
@@ -46307,7 +45367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>115</v>
       </c>
@@ -46327,7 +45387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>115</v>
       </c>
@@ -46347,7 +45407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>115</v>
       </c>
@@ -46406,7 +45466,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -46426,7 +45486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>117</v>
       </c>
@@ -46446,7 +45506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>117</v>
       </c>
@@ -46505,7 +45565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -46525,7 +45585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -46545,7 +45605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>119</v>
       </c>
@@ -46604,7 +45664,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -46624,7 +45684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>121</v>
       </c>
@@ -46644,7 +45704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>121</v>
       </c>
@@ -46703,7 +45763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>123</v>
       </c>
@@ -46723,7 +45783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>123</v>
       </c>
@@ -46743,7 +45803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -46802,7 +45862,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>125</v>
       </c>
@@ -46822,7 +45882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>125</v>
       </c>
@@ -46842,7 +45902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>125</v>
       </c>

--- a/csv/model/CIMS_base/formula_CIMS_base_CIMS.xlsx
+++ b/csv/model/CIMS_base/formula_CIMS_base_CIMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\model\CIMS_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6067CFF-F9A4-4256-929E-8ED3D6F82C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329337C-3CC8-438C-BD0A-D06A74526BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37A7A4EF-74C8-410A-923E-D670709CE2D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BFB3231-38C7-4C4A-9268-1B58904C7C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>CIMS.CAN</t>
+  </si>
+  <si>
+    <t>CIMS.RoW</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,6 @@
       <sheetName val="CER"/>
       <sheetName val="Conversions"/>
       <sheetName val="Coefficients"/>
-      <sheetName val="Macro inputs"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -227,17 +229,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="1">
-          <cell r="D1" t="str">
-            <v>Source</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="K2">
-            <v>2000</v>
+          <cell r="C1" t="str">
+            <v>Region</v>
           </cell>
         </row>
       </sheetData>
@@ -253,11 +249,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
-        <row r="1">
-          <cell r="G1">
-            <v>2000</v>
-          </cell>
-        </row>
         <row r="54">
           <cell r="L54">
             <v>28</v>
@@ -269,7 +260,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -591,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83181F79-531B-426E-9382-74DA84C87C77}">
-  <dimension ref="A1:X12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED9F43D-EBF4-4E04-82C4-1CC117032DF0}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1200,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
